--- a/control_glove/pcb/coponents_list.xlsx
+++ b/control_glove/pcb/coponents_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive - hcmute.edu.vn\Desktop\5_DOF_Robot_Arm\control_glove\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF80B7BF-FA13-4AAF-AC53-75C90CAE436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E342D-8834-4B08-933C-B266727EAA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="12360" xr2:uid="{4F6A1090-6EAE-4C97-A9A6-6A8E6EFAAE50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F6A1090-6EAE-4C97-A9A6-6A8E6EFAAE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Tên linh kiện</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://icdayroi.com/header-1x20-2-54mm-female </t>
+  </si>
+  <si>
+    <t>https://icdayroi.com/nhua-thong-long-50ml</t>
+  </si>
+  <si>
+    <t>Nhựa thông lỏng 50ml</t>
   </si>
 </sst>
 </file>
@@ -187,13 +193,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF777777"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +209,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,22 +244,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -253,15 +299,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}" name="Table1" displayName="Table1" ref="B2:H27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}" name="Table1" displayName="Table1" ref="B2:H28" totalsRowCount="1">
   <autoFilter ref="B2:H27" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0360E349-B29D-4BA7-BF02-0360F6DEB20F}" name="Tên linh kiện"/>
     <tableColumn id="2" xr3:uid="{5EC8D4DC-BAD6-4071-9E2D-6444AE0E9435}" name="Số lượng"/>
     <tableColumn id="3" xr3:uid="{F8061BB8-0670-4BCF-A8DF-141FE3E20A5A}" name="Giá tiền"/>
     <tableColumn id="4" xr3:uid="{2DB7A580-E10B-4B25-B4DF-AB263C0648A0}" name="Chỗ mua"/>
-    <tableColumn id="5" xr3:uid="{F1544D79-CD7C-44CB-B07E-3A00C5E3C427}" name="Tổng giá" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{F1544D79-CD7C-44CB-B07E-3A00C5E3C427}" name="Tổng giá" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,F3:F25)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{17AF2F37-3341-40DF-9228-4B8C4358226B}" name="Link mua"/>
     <tableColumn id="8" xr3:uid="{B2EB78BA-5897-4FEF-B491-A81E7B776DB9}" name="Note"/>
@@ -567,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F181AE3-1300-4688-8AFB-A8602F689BDF}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,7 +655,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -617,7 +664,7 @@
       <c r="D3">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3">
@@ -629,7 +676,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -638,7 +685,7 @@
       <c r="D4">
         <v>2.5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4">
@@ -654,17 +701,17 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -675,17 +722,17 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0.24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -695,18 +742,18 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="4">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -719,18 +766,18 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" s="4">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F8">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -749,7 +796,7 @@
       <c r="D9">
         <v>2.5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F9">
@@ -770,7 +817,7 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F10">
@@ -791,7 +838,7 @@
       <c r="D11">
         <v>0.25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11">
@@ -812,7 +859,7 @@
       <c r="D12">
         <v>0.3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F12">
@@ -828,17 +875,17 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F13">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>30</v>
@@ -854,7 +901,7 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F14">
@@ -866,7 +913,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C15">
@@ -875,7 +922,7 @@
       <c r="D15">
         <v>0.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F15">
@@ -887,7 +934,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C16">
@@ -896,7 +943,7 @@
       <c r="D16">
         <v>0.04</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F16">
@@ -917,7 +964,7 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F17">
@@ -929,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C18">
@@ -938,7 +985,7 @@
       <c r="D18">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F18">
@@ -950,7 +997,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C19">
@@ -959,7 +1006,7 @@
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19">
@@ -970,8 +1017,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C20">
@@ -980,7 +1027,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F20">
@@ -992,45 +1039,72 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F21">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="F22">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="F23">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="F24">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F24">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="F25">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="F26">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F26">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="F27">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F27">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>0</v>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="7">
+        <f>SUBTOTAL(109,F3:F25)</f>
+        <v>310.8</v>
       </c>
     </row>
   </sheetData>
@@ -1053,11 +1127,12 @@
     <hyperlink ref="G17" r:id="rId16" xr:uid="{2C62FDFF-9F9B-45E7-9CDD-89D61822CDAF}"/>
     <hyperlink ref="G19" r:id="rId17" xr:uid="{AE66B504-4807-49C1-8DB5-631049674FEE}"/>
     <hyperlink ref="G20" r:id="rId18" xr:uid="{66035DE0-1076-4B73-BDB8-E369D5A53D9E}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{BE121801-675B-414F-A88E-8CE56E756F18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/control_glove/pcb/coponents_list.xlsx
+++ b/control_glove/pcb/coponents_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive - hcmute.edu.vn\Desktop\5_DOF_Robot_Arm\control_glove\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E342D-8834-4B08-933C-B266727EAA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C571C852-795B-490E-A891-1D7AD05AF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F6A1090-6EAE-4C97-A9A6-6A8E6EFAAE50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F6A1090-6EAE-4C97-A9A6-6A8E6EFAAE50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1404" sheetId="1" r:id="rId1"/>
+    <sheet name="Tổng" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Tên linh kiện</t>
   </si>
@@ -169,6 +170,21 @@
   </si>
   <si>
     <t>Nhựa thông lỏng 50ml</t>
+  </si>
+  <si>
+    <t>Ngày mua: 14/04/2024 + 19/04</t>
+  </si>
+  <si>
+    <t>Dây dán vecro</t>
+  </si>
+  <si>
+    <t>batshop.vn</t>
+  </si>
+  <si>
+    <t>16.5 tiền ship</t>
+  </si>
+  <si>
+    <t>Hết hàng</t>
   </si>
 </sst>
 </file>
@@ -199,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +246,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -258,12 +286,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -285,6 +319,30 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -299,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}" name="Table1" displayName="Table1" ref="B2:H28" totalsRowCount="1">
-  <autoFilter ref="B2:H27" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}" name="Table1" displayName="Table1" ref="B3:H29" totalsRowCount="1">
+  <autoFilter ref="B3:H28" xr:uid="{FCE1A654-5B1F-420F-940B-47536FFCB2B9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0360E349-B29D-4BA7-BF02-0360F6DEB20F}" name="Tên linh kiện"/>
     <tableColumn id="2" xr3:uid="{5EC8D4DC-BAD6-4071-9E2D-6444AE0E9435}" name="Số lượng"/>
@@ -308,10 +366,29 @@
     <tableColumn id="4" xr3:uid="{2DB7A580-E10B-4B25-B4DF-AB263C0648A0}" name="Chỗ mua"/>
     <tableColumn id="5" xr3:uid="{F1544D79-CD7C-44CB-B07E-3A00C5E3C427}" name="Tổng giá" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</calculatedColumnFormula>
-      <totalsRowFormula>SUBTOTAL(109,F3:F25)</totalsRowFormula>
+      <totalsRowFormula>SUBTOTAL(109,F4:F26)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{17AF2F37-3341-40DF-9228-4B8C4358226B}" name="Link mua"/>
     <tableColumn id="8" xr3:uid="{B2EB78BA-5897-4FEF-B491-A81E7B776DB9}" name="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71837BC4-4B92-4CAA-AA59-50F712A4B5ED}" name="Table14" displayName="Table14" ref="B2:H28" totalsRowCount="1">
+  <autoFilter ref="B2:H27" xr:uid="{71837BC4-4B92-4CAA-AA59-50F712A4B5ED}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BE3EB322-0873-49A7-B96C-184FECD2081D}" name="Tên linh kiện" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9445E7E6-B2C5-4CD3-AF59-28D72B65D05A}" name="Số lượng"/>
+    <tableColumn id="3" xr3:uid="{D96576FD-58CA-49C6-BF37-1BF37AFBE790}" name="Giá tiền"/>
+    <tableColumn id="4" xr3:uid="{C71DE2D8-51B1-4A26-9106-9CA2763FF011}" name="Chỗ mua"/>
+    <tableColumn id="5" xr3:uid="{0ED1D56D-1850-4148-B71F-551D9E856AB1}" name="Tổng giá" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,F3:F25)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7FAF20C4-FF12-4826-A6CB-63D2EF45C673}" name="Link mua"/>
+    <tableColumn id="8" xr3:uid="{94C094D4-D86B-4018-84A3-D8E874D70CB8}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,112 +691,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F181AE3-1300-4688-8AFB-A8602F689BDF}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" customWidth="1"/>
-    <col min="7" max="7" width="76.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="76.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>99</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>99</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2.5</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0.24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>2.4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -735,399 +796,434 @@
         <v>2.4</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>61</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F12">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>0.2</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>0.5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>0.04</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F16">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F20">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
       <c r="D21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F21">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
         <v>14</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="E22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="F22">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="H22" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
       <c r="F23">
-        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]] + 16.5</f>
+        <v>76.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="F24">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="F25">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="F26">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="F27">
         <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="7">
-        <f>SUBTOTAL(109,F3:F25)</f>
-        <v>310.8</v>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="F28">
+        <f xml:space="preserve"> Table1[[#This Row],[Giá tiền]] * Table1[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="7">
+        <f>SUBTOTAL(109,F4:F26)</f>
+        <v>373.3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{B3C4F2C3-C809-40E5-99C3-69D3A8EB77C8}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{5580FD48-04E1-4CF3-A5F3-D1AD1B34724A}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{DC2E88C6-4478-4F9F-BAB8-5C148C289295}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{892B1B55-1A06-4037-8C49-1B17780E82CF}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{70650D0E-3361-40A6-9ACA-0BDC166421BC}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{435F40A7-7F06-4C7B-971C-661491398F8C}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{4028B3D2-001A-4BC8-8B29-6B892D2113C2}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{1DD9A69E-CBC9-46F6-B989-B45DCF025BB4}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{5C67D52D-25B5-43B7-8029-FF4FF53A9682}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{E02A5AEF-6975-441F-83F3-DD3C00A02C1E}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{6B292FFB-85E2-4BEE-BBE3-A69D451F066C}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{5B8F71BF-7D4D-4507-8342-8A406F7100E9}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{A0E45E70-A4E9-4794-9FD5-6E83A26243E4}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{A3DF99FD-3CD9-4C0D-BAAC-23FAD3CC64BB}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{EFF3E0D1-5E67-40AD-9891-C6CD86152C85}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{2C62FDFF-9F9B-45E7-9CDD-89D61822CDAF}"/>
-    <hyperlink ref="G19" r:id="rId17" xr:uid="{AE66B504-4807-49C1-8DB5-631049674FEE}"/>
-    <hyperlink ref="G20" r:id="rId18" xr:uid="{66035DE0-1076-4B73-BDB8-E369D5A53D9E}"/>
-    <hyperlink ref="G21" r:id="rId19" xr:uid="{BE121801-675B-414F-A88E-8CE56E756F18}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{B3C4F2C3-C809-40E5-99C3-69D3A8EB77C8}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{5580FD48-04E1-4CF3-A5F3-D1AD1B34724A}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{DC2E88C6-4478-4F9F-BAB8-5C148C289295}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{892B1B55-1A06-4037-8C49-1B17780E82CF}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{70650D0E-3361-40A6-9ACA-0BDC166421BC}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{435F40A7-7F06-4C7B-971C-661491398F8C}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{4028B3D2-001A-4BC8-8B29-6B892D2113C2}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{1DD9A69E-CBC9-46F6-B989-B45DCF025BB4}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{5C67D52D-25B5-43B7-8029-FF4FF53A9682}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{E02A5AEF-6975-441F-83F3-DD3C00A02C1E}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{6B292FFB-85E2-4BEE-BBE3-A69D451F066C}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{5B8F71BF-7D4D-4507-8342-8A406F7100E9}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{A0E45E70-A4E9-4794-9FD5-6E83A26243E4}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{A3DF99FD-3CD9-4C0D-BAAC-23FAD3CC64BB}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{EFF3E0D1-5E67-40AD-9891-C6CD86152C85}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{2C62FDFF-9F9B-45E7-9CDD-89D61822CDAF}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{AE66B504-4807-49C1-8DB5-631049674FEE}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{66035DE0-1076-4B73-BDB8-E369D5A53D9E}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{BE121801-675B-414F-A88E-8CE56E756F18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
@@ -1135,4 +1231,523 @@
     <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0697765B-3C90-44D3-B421-80D267D3ACE8}">
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="F22">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="F23">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="F24">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="F25">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="F26">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="F27">
+        <f xml:space="preserve"> Table14[[#This Row],[Giá tiền]] * Table14[[#This Row],[Số lượng]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="7">
+        <f>SUBTOTAL(109,F3:F25)</f>
+        <v>414.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{23467EA6-47A0-44B3-8A73-2CF1CE7AABA0}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{AE2CDAFF-E3E6-4949-B114-7CDAEEB6ACD7}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{851024F7-938C-4F4C-907D-8769A1E7C5A8}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{85902BD2-B974-461C-8531-3BFE909823C5}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{9B2CBD64-355F-40D3-9D61-A42AD0E80D4C}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{7D0030AB-40A4-418C-BD17-024CE7919395}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{343A36CD-4506-4675-BE0E-9EA1E6FF8376}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{8E15DC87-E5B4-44A8-9B68-1ABBB3006EE6}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{5AD0A1D7-4B4F-4DF0-A2A1-BEFE4800A513}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{C8CB4CCA-FFD2-4ACB-8FBF-892C7E32E2DE}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{B7B28302-4601-4264-BC89-9BF892D42F9E}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{CE8AC12E-C036-4B3B-AE8E-1B5DA457111A}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{64FEBF01-D457-4873-A986-0884193CC06D}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{94D23998-2470-4023-99DF-EC0057541648}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{EB847894-E990-41AF-82C8-D8F3E57A7526}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{441B353F-ACB6-4640-97C5-D1377E9F9F58}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{31C3173D-9D44-47E1-A711-A76BDDD0F7DE}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{E3265C4B-143C-4FA8-91F8-4F936863E102}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{D0156C7E-E575-40C8-8921-F371728C78BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId20"/>
+  </tableParts>
+</worksheet>
 </file>